--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_1_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_1_sawtooth_0.1_.xlsx
@@ -581,73 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3024302749738708</v>
+        <v>0.09962807973459586</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3024302749738708</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7414917159519445</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7414917159519445</v>
-      </c>
+        <v>0.09962807973459586</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.592126125451988</v>
+        <v>6.527501917998149</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.202933281467138, 15.387185532371113]</t>
+          <t>[-1.522427771836746, 14.577431607833045]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2562687541926947</v>
+        <v>0.1094075629041342</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2562687541926947</v>
+        <v>0.1094075629041342</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.201316173686541</v>
+        <v>-1.132105460753078</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.295737766411623, 0.893105419038541]</t>
+          <t>[-4.075579658711082, 1.8113687372049254]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.158826790827447</v>
+        <v>0.442594919408126</v>
       </c>
       <c r="S2" t="n">
-        <v>0.158826790827447</v>
+        <v>0.442594919408126</v>
       </c>
       <c r="T2" t="n">
-        <v>14.60400370955371</v>
+        <v>11.43690394720245</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.640849251934995, 19.56715816717243]</t>
+          <t>[7.2585087986625165, 15.615299095742392]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.01415528372695e-07</v>
+        <v>1.640091191523751e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>4.01415528372695e-07</v>
+        <v>1.640091191523751e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>7.707707707707705</v>
+        <v>4.174774774774807</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.127127127127132</v>
+        <v>-6.679639639639692</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.54254254254254</v>
+        <v>15.02918918918931</v>
       </c>
     </row>
     <row r="3">
@@ -671,73 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5113228780798248</v>
+        <v>0.5649525670700816</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5113228780798248</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.08409842531412604</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08409842531412604</v>
-      </c>
+        <v>0.5649525670700816</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.064476311077079</v>
+        <v>3.130326466979158</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.4628151860678615, 13.59176780822202]</t>
+          <t>[-4.794448525098732, 11.055101459057047]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3947597459403553</v>
+        <v>0.4304523085701462</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3947597459403553</v>
+        <v>0.4304523085701462</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3144737390980774</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.4277637561690435, 2.7988162779728887]</t>
+          <t>[-3.4151848066051214, 2.8617110257925047]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.8397045945770418</v>
+        <v>0.8598370609885813</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8397045945770418</v>
+        <v>0.8598370609885813</v>
       </c>
       <c r="T3" t="n">
-        <v>16.50045658499642</v>
+        <v>11.87388926583807</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[11.35419987354473, 21.64671329644812]</t>
+          <t>[7.669007192029735, 16.0787713396464]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.513799388763175e-08</v>
+        <v>9.06569105563193e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>6.513799388763175e-08</v>
+        <v>9.06569105563193e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>1.101101101101101</v>
+        <v>1.020500500500511</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.7997997997998</v>
+        <v>-10.55290290290299</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.002002002002</v>
+        <v>12.59390390390401</v>
       </c>
     </row>
     <row r="4">
@@ -761,73 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3404596443649733</v>
+        <v>0.1342631429915092</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3404596443649733</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3176136134214202</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3176136134214202</v>
-      </c>
+        <v>0.1342631429915092</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.307160790738484</v>
+        <v>5.952172805096581</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.554265453379498, 15.168587034856467]</t>
+          <t>[-2.0723643637171776, 13.976709973910339]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2841660236816672</v>
+        <v>0.1421670252364848</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2841660236816672</v>
+        <v>0.1421670252364848</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.6289474781961548</v>
+        <v>-0.9308422677303092</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.761105919613006, 2.5032109632206963]</t>
+          <t>[-3.905763839598121, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6878062884635061</v>
+        <v>0.5317473441245895</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6878062884635061</v>
+        <v>0.5317473441245895</v>
       </c>
       <c r="T4" t="n">
-        <v>14.22471997031342</v>
+        <v>12.01564175844318</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.99942231800696, 19.45001762261988]</t>
+          <t>[7.891800484814592, 16.13948303207177]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.815256735371307e-06</v>
+        <v>4.892634140052365e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.815256735371307e-06</v>
+        <v>4.892634140052365e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>2.202202202202201</v>
+        <v>3.43259259259262</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.764764764764767</v>
+        <v>-7.537787787787847</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.16916916916917</v>
+        <v>14.40297297297309</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.21000000000035</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7259289465647406</v>
+        <v>0.09330282314977845</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7259289465647406</v>
+        <v>0.09330282314977845</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.100515841384072</v>
+        <v>7.903246644027051</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-6.724491120309609, 12.925522803077754]</t>
+          <t>[-0.5421541993952772, 16.34864748744938]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5282574067505794</v>
+        <v>0.06592378951522337</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5282574067505794</v>
+        <v>0.06592378951522337</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.07547369738353815</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.2013426640184273, 3.050395269251351]</t>
+          <t>[-1.50318447288881, 1.4025528763774258]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9614291527133143</v>
+        <v>0.9446997093292047</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9614291527133143</v>
+        <v>0.9446997093292047</v>
       </c>
       <c r="T5" t="n">
-        <v>13.2559585181342</v>
+        <v>15.48043401039448</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.782921627730627, 18.728995408537767]</t>
+          <t>[10.428500361090748, 20.53236765969821]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.378197697654571e-05</v>
+        <v>1.735237824540548e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>1.378197697654571e-05</v>
+        <v>1.735237824540548e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2908108108108109</v>
+        <v>0.1901901901901901</v>
       </c>
       <c r="Y5" t="n">
-        <v>-11.75360360360377</v>
+        <v>-5.301551551551616</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.3352252252254</v>
+        <v>5.681931931931996</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.21000000000035</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3080280506880138</v>
+        <v>0.3565335269466232</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3080280506880138</v>
+        <v>0.3565335269466232</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.354674336072407</v>
+        <v>4.100656285660052</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.915039819164864, 16.624388491309677]</t>
+          <t>[-3.443397214951041, 11.644709786271145]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2191095333119502</v>
+        <v>0.2794344622358569</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2191095333119502</v>
+        <v>0.2794344622358569</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1006315965113851</v>
+        <v>-0.729579074707539</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.138447916198813, 2.937184723176043]</t>
+          <t>[-3.8617375161243905, 2.4025793667093125]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9471003423993809</v>
+        <v>0.6412285842339247</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9471003423993809</v>
+        <v>0.6412285842339247</v>
       </c>
       <c r="T6" t="n">
-        <v>14.658788424115</v>
+        <v>12.57320174055382</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.86325672640786, 20.454320121822136]</t>
+          <t>[8.553750045556887, 16.592653435550744]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.715336103191305e-06</v>
+        <v>1.11733946095427e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>6.715336103191305e-06</v>
+        <v>1.11733946095427e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3877477477477527</v>
+        <v>2.757757757757787</v>
       </c>
       <c r="Y6" t="n">
-        <v>-11.31738738738755</v>
+        <v>-9.081581581581691</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.09288288288306</v>
+        <v>14.59709709709727</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.21000000000035</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1295368319140109</v>
+        <v>0.914609482604497</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1295368319140109</v>
+        <v>0.914609482604497</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>8.71730987412934</v>
+        <v>1.380580056940708</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.7083814804971063, 20.143001228755786]</t>
+          <t>[-7.112528753705927, 9.873688867587344]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1313753628841969</v>
+        <v>0.7448847695600889</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1313753628841969</v>
+        <v>0.7448847695600889</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9748685912040402</v>
+        <v>0.9622896416401172</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.867974010242579, 3.8177111926506595]</t>
+          <t>[-2.176158274558695, 4.100737557838929]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.4933159193276135</v>
+        <v>0.5399841984716929</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4933159193276135</v>
+        <v>0.5399841984716929</v>
       </c>
       <c r="T7" t="n">
-        <v>15.25651937350922</v>
+        <v>12.65806705154695</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.24977975743694, 21.263258989581495]</t>
+          <t>[8.019916051590254, 17.29621805150365]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.25364255113503e-06</v>
+        <v>1.732507271201555e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>6.25364255113503e-06</v>
+        <v>1.732507271201555e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>20.45369369369399</v>
+        <v>20.11261261261284</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.499819819819956</v>
+        <v>8.249499499499594</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.40756756756802</v>
+        <v>31.97572572572609</v>
       </c>
     </row>
     <row r="8">
@@ -1109,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.21000000000035</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2604541955651172</v>
+        <v>0.7324624402385496</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2604541955651172</v>
+        <v>0.7324624402385496</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.321201909427014</v>
+        <v>2.795186746251979</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.762796359579447, 11.405200178433475]</t>
+          <t>[-6.319166842992714, 11.909540335496672]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2256112939524131</v>
+        <v>0.539896780600321</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2256112939524131</v>
+        <v>0.539896780600321</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8993948938205012</v>
+        <v>0.3081842643161163</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.232763547596349, 4.031553335237351]</t>
+          <t>[-2.823974177100734, 3.4403427057329665]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5659132607857251</v>
+        <v>0.8438008497686191</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5659132607857251</v>
+        <v>0.8438008497686191</v>
       </c>
       <c r="T8" t="n">
-        <v>11.71354729706869</v>
+        <v>14.05530728864516</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.020429013143445, 15.406665580993927]</t>
+          <t>[9.01116896968337, 19.099445607606953]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.268957185642023e-08</v>
+        <v>1.170909814662835e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>8.268957185642023e-08</v>
+        <v>1.170909814662835e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.7445045045048</v>
+        <v>22.58508508508534</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.675855855855982</v>
+        <v>10.74574574574587</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.81315315315362</v>
+        <v>34.42442442442481</v>
       </c>
     </row>
     <row r="9">
@@ -1195,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.21000000000035</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2927633549580994</v>
+        <v>0.33886731200906</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2927633549580994</v>
+        <v>0.33886731200906</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.588301210500688</v>
+        <v>4.806143897944602</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.742727463012695, 14.919329884014072]</t>
+          <t>[-3.6359623134059005, 13.248250109295103]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2340304083351492</v>
+        <v>0.257590271186769</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2340304083351492</v>
+        <v>0.257590271186769</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.2767368904063083</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.402605857041198, 2.8491320762285812]</t>
+          <t>[-3.484369029206697, 2.779947853627004]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.8592790944526594</v>
+        <v>0.8218494894721877</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8592790944526594</v>
+        <v>0.8218494894721877</v>
       </c>
       <c r="T9" t="n">
-        <v>13.87900369890408</v>
+        <v>14.78686504849363</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.887006589410305, 18.871000808397845]</t>
+          <t>[10.178594068671922, 19.39513602831535]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.221743380463991e-06</v>
+        <v>6.404009811333822e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.221743380463991e-06</v>
+        <v>6.404009811333822e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>1.06630630630632</v>
+        <v>1.331331331331349</v>
       </c>
       <c r="Y9" t="n">
-        <v>-10.97810810810827</v>
+        <v>-10.50800800800813</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.11072072072091</v>
+        <v>13.17067067067082</v>
       </c>
     </row>
     <row r="10">
@@ -1281,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.21000000000035</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3022355611864479</v>
+        <v>0.4907471430585338</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3022355611864479</v>
+        <v>0.4907471430585338</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.368348818819396</v>
+        <v>4.57362135337006</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.743390949662626, 17.480088587301417]</t>
+          <t>[-5.478898475475728, 14.62614118221585]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2544621999332757</v>
+        <v>0.3643620701401113</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2544621999332757</v>
+        <v>0.3643620701401113</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.4905790329930007</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.528395352680428, 2.547237286694427]</t>
+          <t>[-3.3397111092215814, 2.937184723176043]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.746492601658574</v>
+        <v>0.8978058849407751</v>
       </c>
       <c r="S10" t="n">
-        <v>0.746492601658574</v>
+        <v>0.8978058849407751</v>
       </c>
       <c r="T10" t="n">
-        <v>14.83809986585468</v>
+        <v>14.66197840189739</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.064320749076536, 20.611878982632824]</t>
+          <t>[9.224699723524843, 20.099257080269936]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.107372576862446e-06</v>
+        <v>2.162960448748308e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.107372576862446e-06</v>
+        <v>2.162960448748308e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>1.890270270270296</v>
+        <v>0.7607607607607711</v>
       </c>
       <c r="Y10" t="n">
-        <v>-9.814864864865006</v>
+        <v>-11.10235235235248</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5954054054056</v>
+        <v>12.62387387387402</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_1_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_1_sawtooth_0.1_.xlsx
@@ -581,69 +581,73 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.17000000000018</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09962807973459586</v>
+        <v>0.2787164507540862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09962807973459586</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>0.2787164507540862</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2077832687032055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2077832687032055</v>
+      </c>
       <c r="L2" t="n">
-        <v>6.527501917998149</v>
+        <v>5.540855280819184</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.522427771836746, 14.577431607833045]</t>
+          <t>[-2.8921669038082527, 13.97387746544662]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1094075629041342</v>
+        <v>0.1924029803131992</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1094075629041342</v>
+        <v>0.1924029803131992</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.132105460753078</v>
+        <v>-1.849105585896695</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.075579658711082, 1.8113687372049254]</t>
+          <t>[-4.9309482290578535, 1.2327370572644627]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.442594919408126</v>
+        <v>0.233181709850482</v>
       </c>
       <c r="S2" t="n">
-        <v>0.442594919408126</v>
+        <v>0.233181709850482</v>
       </c>
       <c r="T2" t="n">
-        <v>11.43690394720245</v>
+        <v>14.15616430410264</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.2585087986625165, 15.615299095742392]</t>
+          <t>[9.459427028918714, 18.852901579286563]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.640091191523751e-06</v>
+        <v>2.452784702011712e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.640091191523751e-06</v>
+        <v>2.452784702011712e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.174774774774807</v>
+        <v>6.474474474474475</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.679639639639692</v>
+        <v>-4.316316316316314</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.02918918918931</v>
+        <v>17.26526526526526</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +671,73 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.17000000000018</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5649525670700816</v>
+        <v>0.1635061351889273</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5649525670700816</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0.1635061351889273</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1495580718183218</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1495580718183218</v>
+      </c>
       <c r="L3" t="n">
-        <v>3.130326466979158</v>
+        <v>6.274545945061579</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.794448525098732, 11.055101459057047]</t>
+          <t>[-2.5268821300769257, 15.075974020200084]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4304523085701462</v>
+        <v>0.1579586850348431</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4304523085701462</v>
+        <v>0.1579586850348431</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2767368904063083</v>
+        <v>-0.8553685703467711</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.4151848066051214, 2.8617110257925047]</t>
+          <t>[-3.968658587417738, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.8598370609885813</v>
+        <v>0.582749285308473</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8598370609885813</v>
+        <v>0.582749285308473</v>
       </c>
       <c r="T3" t="n">
-        <v>11.87388926583807</v>
+        <v>12.39772467196327</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.669007192029735, 16.0787713396464]</t>
+          <t>[7.734281619528041, 17.061167724398494]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.06569105563193e-07</v>
+        <v>2.802463227258301e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>9.06569105563193e-07</v>
+        <v>2.802463227258301e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>1.020500500500511</v>
+        <v>2.994994994994997</v>
       </c>
       <c r="Y3" t="n">
-        <v>-10.55290290290299</v>
+        <v>-7.905905905905906</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.59390390390401</v>
+        <v>13.8958958958959</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +761,73 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.17000000000018</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1342631429915092</v>
+        <v>0.7717876812051281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1342631429915092</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0.7717876812051281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2157866424434569</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2157866424434569</v>
+      </c>
       <c r="L4" t="n">
-        <v>5.952172805096581</v>
+        <v>2.487417847606783</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.0723643637171776, 13.976709973910339]</t>
+          <t>[-7.133164580276918, 12.108000275490483]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1421670252364848</v>
+        <v>0.6050941473806883</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1421670252364848</v>
+        <v>0.6050941473806883</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.9308422677303092</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.905763839598121, 2.0440793041375027]</t>
+          <t>[-2.5283688623485423, 3.7485269700490838]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5317473441245895</v>
+        <v>0.6972614565307182</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5317473441245895</v>
+        <v>0.6972614565307182</v>
       </c>
       <c r="T4" t="n">
-        <v>12.01564175844318</v>
+        <v>13.8827036099093</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.891800484814592, 16.13948303207177]</t>
+          <t>[8.978060553077455, 18.78734666674115]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.892634140052365e-07</v>
+        <v>8.659526917753624e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>4.892634140052365e-07</v>
+        <v>8.659526917753624e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>3.43259259259262</v>
+        <v>19.86386386386386</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.537787787787847</v>
+        <v>8.87487487487487</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.40297297297309</v>
+        <v>30.85285285285286</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.75000000000027</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09330282314977845</v>
+        <v>0.5492111461291954</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09330282314977845</v>
+        <v>0.5492111461291954</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>7.903246644027051</v>
+        <v>3.881594211577966</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.5421541993952772, 16.34864748744938]</t>
+          <t>[-5.959529324000001, 13.722717747155933]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06592378951522337</v>
+        <v>0.4311238921017826</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06592378951522337</v>
+        <v>0.4311238921017826</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0503157982556921</v>
+        <v>0.6603948521059619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.50318447288881, 1.4025528763774258]</t>
+          <t>[-2.4780530640928498, 3.7988427683047736]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9446997093292047</v>
+        <v>0.6737239111633362</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9446997093292047</v>
+        <v>0.6737239111633362</v>
       </c>
       <c r="T5" t="n">
-        <v>15.48043401039448</v>
+        <v>11.93766190023422</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[10.428500361090748, 20.53236765969821]</t>
+          <t>[6.9074899730020345, 16.9678338274664]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.735237824540548e-07</v>
+        <v>1.907202204076697e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.735237824540548e-07</v>
+        <v>1.907202204076697e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1901901901901901</v>
+        <v>20.88684684684704</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.301551551551616</v>
+        <v>9.228528528528615</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.681931931931996</v>
+        <v>32.54516516516546</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.75000000000027</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3565335269466232</v>
+        <v>0.1220000331785136</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3565335269466232</v>
+        <v>0.1220000331785136</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.100656285660052</v>
+        <v>7.249845018535478</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.443397214951041, 11.644709786271145]</t>
+          <t>[-2.3346551684550825, 16.834345205526038]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2794344622358569</v>
+        <v>0.1346323166092389</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2794344622358569</v>
+        <v>0.1346323166092389</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.729579074707539</v>
+        <v>0.6352369529781168</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.8617375161243905, 2.4025793667093125]</t>
+          <t>[-2.415158316273234, 3.6856322222294677]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.6412285842339247</v>
+        <v>0.6768961905945052</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6412285842339247</v>
+        <v>0.6768961905945052</v>
       </c>
       <c r="T6" t="n">
-        <v>12.57320174055382</v>
+        <v>15.36325272266082</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.553750045556887, 16.592653435550744]</t>
+          <t>[10.432067334803147, 20.294438110518495]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.11733946095427e-07</v>
+        <v>1.218455856211165e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.11733946095427e-07</v>
+        <v>1.218455856211165e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>2.757757757757787</v>
+        <v>20.98030030030049</v>
       </c>
       <c r="Y6" t="n">
-        <v>-9.081581581581691</v>
+        <v>9.649069069069155</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.59709709709727</v>
+        <v>32.31153153153182</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.75000000000027</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.914609482604497</v>
+        <v>0.7878499837328705</v>
       </c>
       <c r="I7" t="n">
-        <v>0.914609482604497</v>
+        <v>0.7878499837328705</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.380580056940708</v>
+        <v>2.432135029606909</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-7.112528753705927, 9.873688867587344]</t>
+          <t>[-7.135845669069734, 12.00011572828355]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7448847695600889</v>
+        <v>0.6111717491386881</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7448847695600889</v>
+        <v>0.6111717491386881</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9622896416401172</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.176158274558695, 4.100737557838929]</t>
+          <t>[-3.2139216135823516, 3.0378163196874275]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5399841984716929</v>
+        <v>0.9550072221327155</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5399841984716929</v>
+        <v>0.9550072221327155</v>
       </c>
       <c r="T7" t="n">
-        <v>12.65806705154695</v>
+        <v>14.87081511952243</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.019916051590254, 17.29621805150365]</t>
+          <t>[9.802037057352862, 19.939593181691997]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.732507271201555e-06</v>
+        <v>4.261014880935221e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.732507271201555e-06</v>
+        <v>4.261014880935221e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>20.11261261261284</v>
+        <v>0.3270870870870901</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.249499499499594</v>
+        <v>-11.28450450450461</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.97572572572609</v>
+        <v>11.93867867867879</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.75000000000027</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7324624402385496</v>
+        <v>0.2018754788692187</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7324624402385496</v>
+        <v>0.2018754788692187</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.795186746251979</v>
+        <v>4.84821028773912</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.319166842992714, 11.909540335496672]</t>
+          <t>[-2.5393688997643267, 12.235789475242566]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.539896780600321</v>
+        <v>0.1929199109448099</v>
       </c>
       <c r="O8" t="n">
-        <v>0.539896780600321</v>
+        <v>0.1929199109448099</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3081842643161163</v>
+        <v>-0.5283158816847697</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.823974177100734, 3.4403427057329665]</t>
+          <t>[-3.6290269491918123, 2.572395185822273]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8438008497686191</v>
+        <v>0.7330658115930495</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8438008497686191</v>
+        <v>0.7330658115930495</v>
       </c>
       <c r="T8" t="n">
-        <v>14.05530728864516</v>
+        <v>11.32131811327622</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.01116896968337, 19.099445607606953]</t>
+          <t>[7.506809817933208, 15.135826408619236]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.170909814662835e-06</v>
+        <v>3.368685097537849e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.170909814662835e-06</v>
+        <v>3.368685097537849e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>22.58508508508534</v>
+        <v>1.962522522522541</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.74574574574587</v>
+        <v>-9.555615615615698</v>
       </c>
       <c r="Z8" t="n">
-        <v>34.42442442442481</v>
+        <v>13.48066066066078</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.75000000000027</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.33886731200906</v>
+        <v>0.02843632238454907</v>
       </c>
       <c r="I9" t="n">
-        <v>0.33886731200906</v>
+        <v>0.02843632238454907</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.806143897944602</v>
+        <v>8.64760418452641</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.6359623134059005, 13.248250109295103]</t>
+          <t>[0.8791164761740085, 16.41609189287881]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.257590271186769</v>
+        <v>0.02993439888984506</v>
       </c>
       <c r="O9" t="n">
-        <v>0.257590271186769</v>
+        <v>0.02993439888984506</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.3522105877898465</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.484369029206697, 2.779947853627004]</t>
+          <t>[0.09434212172942402, 2.6604478327697354]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.8218494894721877</v>
+        <v>0.03595731712082872</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8218494894721877</v>
+        <v>0.03595731712082872</v>
       </c>
       <c r="T9" t="n">
-        <v>14.78686504849363</v>
+        <v>13.02165441770319</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.178594068671922, 19.39513602831535]</t>
+          <t>[8.643031239458061, 17.40027759594831]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.404009811333822e-08</v>
+        <v>3.233451817408195e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>6.404009811333822e-08</v>
+        <v>3.233451817408195e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>1.331331331331349</v>
+        <v>18.22342342342358</v>
       </c>
       <c r="Y9" t="n">
-        <v>-10.50800800800813</v>
+        <v>13.45729729729741</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.17067067067082</v>
+        <v>22.98954954954975</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.75000000000027</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4907471430585338</v>
+        <v>0.4791127155540551</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4907471430585338</v>
+        <v>0.4791127155540551</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.57362135337006</v>
+        <v>3.468382188358656</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.478898475475728, 14.62614118221585]</t>
+          <t>[-4.238154651782221, 11.174919028499534]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3643620701401113</v>
+        <v>0.3695199042703501</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3643620701401113</v>
+        <v>0.3695199042703501</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2012631930227693</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.3397111092215814, 2.937184723176043]</t>
+          <t>[-2.7610794292811196, 3.5032374535525825]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8978058849407751</v>
+        <v>0.8124846262883576</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8978058849407751</v>
+        <v>0.8124846262883576</v>
       </c>
       <c r="T10" t="n">
-        <v>14.66197840189739</v>
+        <v>11.43298706831166</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.224699723524843, 20.099257080269936]</t>
+          <t>[7.356866873847164, 15.509107262776158]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.162960448748308e-06</v>
+        <v>1.032316750304574e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.162960448748308e-06</v>
+        <v>1.032316750304574e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7607607607607711</v>
+        <v>21.96156156156176</v>
       </c>
       <c r="Y10" t="n">
-        <v>-11.10235235235248</v>
+        <v>10.3266066066067</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.62387387387402</v>
+        <v>33.59651651651681</v>
       </c>
     </row>
   </sheetData>
